--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3779.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3779.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.59158481209181</v>
+        <v>4.382367134094238</v>
       </c>
       <c r="B1">
-        <v>2.606839459725427</v>
+        <v>4.17560338973999</v>
       </c>
       <c r="C1">
-        <v>2.917505432231018</v>
+        <v>3.65787672996521</v>
       </c>
       <c r="D1">
-        <v>3.440970711162931</v>
+        <v>1.848637819290161</v>
       </c>
       <c r="E1">
-        <v>2.754143948346734</v>
+        <v>0.8911393880844116</v>
       </c>
     </row>
   </sheetData>
